--- a/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del sueño (tasa de respuesta: 95,49%)</t>
+          <t>Calidad del sueño (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,44</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>8.070505519873874</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7.406300582330075</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.422193204347099</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.701243428015235</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>7.706864668432737</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.969733269358166</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 8,19</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 7,77</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 7,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 6,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 7,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 7,18</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>7.778696496185701</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>7.071283212709957</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.159641133329018</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.392750512784175</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.526094827786542</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.751722115439888</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.290008161577797</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>7.731731149111374</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.691480123889908</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.955550479684141</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.878032214928059</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.207009633516572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 8,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 7,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 8,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 7,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 8,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 7,4</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>8.455740217393371</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>7.403733522851965</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.075254774035345</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>7.166037345004513</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>8.263129041604376</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>7.285880912472286</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>8.324193277902335</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>7.227790849208822</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>7.929174616413619</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>7.001802839854669</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>8.168897157245054</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>7.170702127612024</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>8.571083664175983</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>7.553287889384617</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>8.199771232975531</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>7.332189295564025</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>8.352101378636277</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>7.394720064551382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,59</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 8,74</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 8,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 8,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 7,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 8,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 7,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>8.581229043235901</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>7.904933498862909</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>8.342793798022676</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7.44850356496111</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>8.456188952335346</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>7.661239803176899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>8.3708620258622</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>7.665723278413446</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>8.136269823008885</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>7.238382774672536</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>8.32037923237907</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>7.499737511467257</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>8.75090801885241</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>8.13860975248093</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>8.50363905366714</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>7.663322277982674</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>8.579590369920634</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>7.806303168728308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,19</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 8,46</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 7,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 8,13</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 7,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 8,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>8.434392042542639</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>7.548493658682514</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>8.03848010610087</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>7.184664380903632</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>8.22854001968928</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>7.358565089207291</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>8.334160933967429</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>7.419393895221922</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>7.937531752157338</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>7.063864555890324</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>8.154426567822037</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>7.257460599626455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>8.523790313360944</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>7.670533303699469</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>8.145444508463786</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>7.314623621190896</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>8.30247901228099</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>7.443521351284018</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
